--- a/TestInput/OHRMS_Input.xlsx
+++ b/TestInput/OHRMS_Input.xlsx
@@ -14,7 +14,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>TC_Name</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>NewUserName</t>
+  </si>
+  <si>
+    <t>NewUserPassword</t>
+  </si>
+  <si>
+    <t>NewUserConfirmPassword</t>
+  </si>
+  <si>
+    <t>Hannah Flores</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>America123#</t>
+  </si>
+  <si>
+    <t>AssignLeave</t>
+  </si>
+  <si>
+    <t>Jasmine Morgan</t>
+  </si>
+  <si>
+    <t>LeaveType</t>
+  </si>
+  <si>
+    <t>Maternity US</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>EmployeeFirstName</t>
+  </si>
+  <si>
+    <t>EmployeeLastName</t>
+  </si>
+  <si>
+    <t>EmployeeRegistration</t>
+  </si>
+  <si>
+    <t>UserRegistration</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trump</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,14 +412,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43979</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44071</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestInput/OHRMS_Input.xlsx
+++ b/TestInput/OHRMS_Input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>TC_Name</t>
   </si>
@@ -34,18 +34,12 @@
     <t>Hannah Flores</t>
   </si>
   <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
     <t>America123#</t>
   </si>
   <si>
     <t>AssignLeave</t>
   </si>
   <si>
-    <t>Jasmine Morgan</t>
-  </si>
-  <si>
     <t>LeaveType</t>
   </si>
   <si>
@@ -79,7 +73,10 @@
     <t>Donald</t>
   </si>
   <si>
-    <t xml:space="preserve"> Trump</t>
+    <t>Donald Trump1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trump1</t>
   </si>
 </sst>
 </file>
@@ -415,7 +412,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,50 +445,50 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="1">
         <v>43979</v>
@@ -500,18 +497,18 @@
         <v>44071</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
